--- a/medicine/Enfance/Laurent_(coloriste)/Laurent_(coloriste).xlsx
+++ b/medicine/Enfance/Laurent_(coloriste)/Laurent_(coloriste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent de son vrai nom Louis-Laurent Carpentier, né le 4 octobre 1968 à Bruxelles (province de Brabant), est un coloriste de bande dessinée, dessinateur et illustrateur belge. Il a également utilisé le nom de plume Lawrence Carpenter.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Laurent Carpentier naît le 4 octobre 1968 à Bruxelles[1]. Il est le fils de Louis-Michel Carpentier (dessinateur de Du côté de chez Poje, Les Toyottes) et commence par colorier les albums de son père[2]. Il suit ensuite des humanités artistiques à Saint-Luc, à La Cambre et à l'Académie de Saint-Gilles. En 1994, il crée Lulu et Berlu qui paraît chez Topgame[2]. Il fait son entrée au journal Spirou en 1995[3].
-En 2013, il colorie une nouvelle série pour David Evrard et Falzar Dans les yeux de Camille[4]. En 2016, Laurent illustre le livre pour enfants : Le Rhinomadaire Rocéros aux éditions Max et Compagnie.  
-En 2018, il commence à illustrer des livres à portée pédagogique pour la jeunesse aux éditions Les Nez-à-nez[5],[6].
-Laurent participe régulièrement à des expositions collectives dans la capitale belge[7],[8].
-En 2023, à l’initiative du Lions Clubs Bruxelles Millénaire, des dessinateurs de bande dessinée dont Laurent Carpentier ont décoré des tentes en carton dans le cadre de l'opération Une tente, une vie[9] et pour laquelle une vente caritative est organisée par Drouot[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Laurent Carpentier naît le 4 octobre 1968 à Bruxelles. Il est le fils de Louis-Michel Carpentier (dessinateur de Du côté de chez Poje, Les Toyottes) et commence par colorier les albums de son père. Il suit ensuite des humanités artistiques à Saint-Luc, à La Cambre et à l'Académie de Saint-Gilles. En 1994, il crée Lulu et Berlu qui paraît chez Topgame. Il fait son entrée au journal Spirou en 1995.
+En 2013, il colorie une nouvelle série pour David Evrard et Falzar Dans les yeux de Camille. En 2016, Laurent illustre le livre pour enfants : Le Rhinomadaire Rocéros aux éditions Max et Compagnie.  
+En 2018, il commence à illustrer des livres à portée pédagogique pour la jeunesse aux éditions Les Nez-à-nez,.
+Laurent participe régulièrement à des expositions collectives dans la capitale belge,.
+En 2023, à l’initiative du Lions Clubs Bruxelles Millénaire, des dessinateurs de bande dessinée dont Laurent Carpentier ont décoré des tentes en carton dans le cadre de l'opération Une tente, une vie et pour laquelle une vente caritative est organisée par Drouot.
 </t>
         </is>
       </c>
@@ -548,26 +562,175 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dessinateur
-Lulu et Berlu, scénario de Louis-Michel Carpentier (Topgame)
-Coloriste
-Du côté de chez Poje, scénario de Cauvin, dessin de Louis-Michel Carpentier (Dupuis)
+          <t>Dessinateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lulu et Berlu, scénario de Louis-Michel Carpentier (Topgame)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coloriste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Du côté de chez Poje, scénario de Cauvin, dessin de Louis-Michel Carpentier (Dupuis)
 L'Agent 212, scénario de Cauvin, dessin de Kox (Dupuis)
-Cupidon[11], scénario de Cauvin, dessin de Malik (Dupuis, Joker)
+Cupidon, scénario de Cauvin, dessin de Malik (Dupuis, Joker)
 Les Toyottes, scénario de Cauvin, dessin de Louis-Michel Carpentier (Casterman)
 Les Paparazzi, scénario de Cauvin, dessin de Mazel (Dupuis)
 Les Zappeurs, scénario et dessin de Ernst (Dupuis)
-Boule à zéro[12], scénario de Zidrou, dessin de Ernst, 10 tomes, éditions Bamboo.
-Série Chansons Cochonnes[14], 4 volumes, (3 albums chez Topgame (1990-1992), 1 album chez Le Fourbe chinois en 2014).
-Dans les yeux de Camille
-1 Plus Belge la Vie, La Renaissance du livre, coll. « Renaissance de la BD », 18 décembre 2013Scénario : Falzar - Dessin : David Evrard - Couleurs : Laurent -  (ISBN 2-507-05156-6)[15]
+Boule à zéro, scénario de Zidrou, dessin de Ernst, 10 tomes, éditions Bamboo.
+Série Chansons Cochonnes, 4 volumes, (3 albums chez Topgame (1990-1992), 1 album chez Le Fourbe chinois en 2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coloriste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dans les yeux de Camille</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 Plus Belge la Vie, La Renaissance du livre, coll. « Renaissance de la BD », 18 décembre 2013Scénario : Falzar - Dessin : David Evrard - Couleurs : Laurent -  (ISBN 2-507-05156-6)
 2 Belgicoutai !, Renaissance du livre, coll. « Renaissance de la BD », 3 juillet 2014Scénario : Falzar - Dessin : David Evrard - Couleurs : Laurent -  (ISBN 978-2-507-05214-0)
-3 I love Belgium, Renaissance du livre, coll. « Renaissance de la BD », 17 avril 2015Scénario : Falzar - Dessin : David Evrard - Couleurs : Laurent -  (ISBN 978-2-507-05242-3)
-Collectifs
-Sortilège - Intégrale[16], C.M. éditions, 16 juin 2022Scénario : Bruno Di Sano, Daniel Bardet, Christian Mathoul - Dessin : collectif - Couleurs : Laurent Carpentier, Louis-Michel Carpentier, Alain Audry -  (ISBN 978-2-9602788-1-1),Couverture : Daniel Desorgher, Stéphane Dizier. Storyboard : Bruno Gilson. Avec Jo-El Azara, Francis Carin, Jean-Pol, Hec Leemans, Wim Swerts, André Taymans, Yannick Thiel.
-Illustration de livres pour enfants
-Éléphantine veut tout savoir sur sa zézette[17], Natacha de Locht, éditions Les Nez-à-nez.
-Renardo veut tout savoir sur son zizi[18], Natacha de Locht, éditions Les Nez-à-nez.</t>
+3 I love Belgium, Renaissance du livre, coll. « Renaissance de la BD », 17 avril 2015Scénario : Falzar - Dessin : David Evrard - Couleurs : Laurent -  (ISBN 978-2-507-05242-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sortilège - Intégrale, C.M. éditions, 16 juin 2022Scénario : Bruno Di Sano, Daniel Bardet, Christian Mathoul - Dessin : collectif - Couleurs : Laurent Carpentier, Louis-Michel Carpentier, Alain Audry -  (ISBN 978-2-9602788-1-1),Couverture : Daniel Desorgher, Stéphane Dizier. Storyboard : Bruno Gilson. Avec Jo-El Azara, Francis Carin, Jean-Pol, Hec Leemans, Wim Swerts, André Taymans, Yannick Thiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_(coloriste)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Illustration de livres pour enfants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Éléphantine veut tout savoir sur sa zézette, Natacha de Locht, éditions Les Nez-à-nez.
+Renardo veut tout savoir sur son zizi, Natacha de Locht, éditions Les Nez-à-nez.</t>
         </is>
       </c>
     </row>
